--- a/data/raw/election/voters-age-sex-education/2023/Van.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Van.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:04:22-16283848559" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="42">
   <si>
     <t>Van</t>
   </si>
@@ -140,6 +139,12 @@
   </si>
   <si>
     <t>Tuşba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -687,16 +692,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,10 +1035,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N342"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343:A344"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,24 +1054,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1158,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="5">
-        <v>1.026</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1197,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="5">
-        <v>1.036</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1237,7 +1251,7 @@
       <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>577</v>
       </c>
     </row>
@@ -1276,7 +1290,7 @@
       <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>609</v>
       </c>
     </row>
@@ -1317,7 +1331,7 @@
       <c r="L10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>473</v>
       </c>
     </row>
@@ -1356,7 +1370,7 @@
       <c r="L11" s="4">
         <v>4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>426</v>
       </c>
     </row>
@@ -1397,7 +1411,7 @@
       <c r="L12" s="4">
         <v>2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>302</v>
       </c>
     </row>
@@ -1436,7 +1450,7 @@
       <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>299</v>
       </c>
     </row>
@@ -1477,7 +1491,7 @@
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>331</v>
       </c>
     </row>
@@ -1516,7 +1530,7 @@
       <c r="L15" s="4">
         <v>2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>312</v>
       </c>
     </row>
@@ -1557,7 +1571,7 @@
       <c r="L16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>298</v>
       </c>
     </row>
@@ -1596,7 +1610,7 @@
       <c r="L17" s="4">
         <v>3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>326</v>
       </c>
     </row>
@@ -1637,7 +1651,7 @@
       <c r="L18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>252</v>
       </c>
     </row>
@@ -1676,7 +1690,7 @@
       <c r="L19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>247</v>
       </c>
     </row>
@@ -1717,7 +1731,7 @@
       <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>211</v>
       </c>
     </row>
@@ -1756,7 +1770,7 @@
       <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>193</v>
       </c>
     </row>
@@ -1797,7 +1811,7 @@
       <c r="L22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>177</v>
       </c>
     </row>
@@ -1836,7 +1850,7 @@
       <c r="L23" s="4">
         <v>1</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>136</v>
       </c>
     </row>
@@ -1877,7 +1891,7 @@
       <c r="L24" s="4">
         <v>1</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>154</v>
       </c>
     </row>
@@ -1916,7 +1930,7 @@
       <c r="L25" s="4">
         <v>2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>166</v>
       </c>
     </row>
@@ -1957,7 +1971,7 @@
       <c r="L26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>108</v>
       </c>
     </row>
@@ -1996,7 +2010,7 @@
       <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>149</v>
       </c>
     </row>
@@ -2037,7 +2051,7 @@
       <c r="L28" s="4">
         <v>2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>102</v>
       </c>
     </row>
@@ -2076,7 +2090,7 @@
       <c r="L29" s="4">
         <v>8</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>153</v>
       </c>
     </row>
@@ -2084,39 +2098,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
-        <v>1.1359999999999999</v>
+        <v>1136</v>
       </c>
       <c r="D30" s="5">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="E30" s="5">
+        <v>1223</v>
+      </c>
+      <c r="E30" s="6">
         <v>968</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <v>413</v>
       </c>
       <c r="G30" s="5">
-        <v>1.665</v>
+        <v>1665</v>
       </c>
       <c r="H30" s="5">
-        <v>1.825</v>
-      </c>
-      <c r="I30" s="5">
+        <v>1825</v>
+      </c>
+      <c r="I30" s="6">
         <v>713</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="6">
         <v>71</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>2</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>47</v>
       </c>
       <c r="M30" s="5">
-        <v>8.0630000000000006</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2177,11 +2191,11 @@
       <c r="F32" s="4">
         <v>5</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.726</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.5109999999999999</v>
+      <c r="G32" s="9">
+        <v>1726</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1511</v>
       </c>
       <c r="I32" s="4">
         <v>202</v>
@@ -2196,7 +2210,7 @@
         <v>47</v>
       </c>
       <c r="M32" s="5">
-        <v>3.6840000000000002</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2216,11 +2230,11 @@
       <c r="F33" s="4">
         <v>3</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.619</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1.0980000000000001</v>
+      <c r="G33" s="9">
+        <v>1619</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1098</v>
       </c>
       <c r="I33" s="4">
         <v>156</v>
@@ -2235,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="M33" s="5">
-        <v>3.1749999999999998</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2276,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="M34" s="5">
-        <v>2.593</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2315,7 +2329,7 @@
         <v>14</v>
       </c>
       <c r="M35" s="5">
-        <v>1.895</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2356,7 +2370,7 @@
         <v>17</v>
       </c>
       <c r="M36" s="5">
-        <v>1.87</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2395,7 +2409,7 @@
         <v>18</v>
       </c>
       <c r="M37" s="5">
-        <v>1.494</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2436,7 +2450,7 @@
         <v>18</v>
       </c>
       <c r="M38" s="5">
-        <v>1.3069999999999999</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2475,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="M39" s="5">
-        <v>1.0389999999999999</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2516,7 +2530,7 @@
         <v>14</v>
       </c>
       <c r="M40" s="5">
-        <v>1.365</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2555,7 +2569,7 @@
         <v>23</v>
       </c>
       <c r="M41" s="5">
-        <v>1.304</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,7 +2609,7 @@
       <c r="L42" s="4">
         <v>7</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>951</v>
       </c>
     </row>
@@ -2634,7 +2648,7 @@
       <c r="L43" s="4">
         <v>9</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>804</v>
       </c>
     </row>
@@ -2675,7 +2689,7 @@
       <c r="L44" s="4">
         <v>3</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>782</v>
       </c>
     </row>
@@ -2714,7 +2728,7 @@
       <c r="L45" s="4">
         <v>14</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>615</v>
       </c>
     </row>
@@ -2755,7 +2769,7 @@
       <c r="L46" s="4">
         <v>4</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>785</v>
       </c>
     </row>
@@ -2794,7 +2808,7 @@
       <c r="L47" s="4">
         <v>9</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>677</v>
       </c>
     </row>
@@ -2835,7 +2849,7 @@
       <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>565</v>
       </c>
     </row>
@@ -2874,7 +2888,7 @@
       <c r="L49" s="4">
         <v>8</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>513</v>
       </c>
     </row>
@@ -2915,7 +2929,7 @@
       <c r="L50" s="4">
         <v>4</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>374</v>
       </c>
     </row>
@@ -2954,7 +2968,7 @@
       <c r="L51" s="4">
         <v>10</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>428</v>
       </c>
     </row>
@@ -2995,7 +3009,7 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>225</v>
       </c>
     </row>
@@ -3034,7 +3048,7 @@
       <c r="L53" s="4">
         <v>10</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>305</v>
       </c>
     </row>
@@ -3075,7 +3089,7 @@
       <c r="L54" s="4">
         <v>2</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>232</v>
       </c>
     </row>
@@ -3114,7 +3128,7 @@
       <c r="L55" s="4">
         <v>14</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>364</v>
       </c>
     </row>
@@ -3122,39 +3136,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>2.6070000000000002</v>
+        <v>2607</v>
       </c>
       <c r="D56" s="5">
-        <v>4.149</v>
+        <v>4149</v>
       </c>
       <c r="E56" s="5">
-        <v>4.8719999999999999</v>
+        <v>4872</v>
       </c>
       <c r="F56" s="5">
-        <v>1.8640000000000001</v>
+        <v>1864</v>
       </c>
       <c r="G56" s="5">
-        <v>5.8129999999999997</v>
+        <v>5813</v>
       </c>
       <c r="H56" s="5">
-        <v>5.2169999999999996</v>
+        <v>5217</v>
       </c>
       <c r="I56" s="5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J56" s="5">
+        <v>2320</v>
+      </c>
+      <c r="J56" s="6">
         <v>205</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>3</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>296</v>
       </c>
       <c r="M56" s="5">
-        <v>27.346</v>
+        <v>27346</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3215,11 +3229,11 @@
       <c r="F58" s="4">
         <v>4</v>
       </c>
-      <c r="G58" s="4">
-        <v>2.7730000000000001</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1.389</v>
+      <c r="G58" s="9">
+        <v>2773</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1389</v>
       </c>
       <c r="I58" s="4">
         <v>182</v>
@@ -3234,7 +3248,7 @@
         <v>90</v>
       </c>
       <c r="M58" s="5">
-        <v>4.7480000000000002</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,11 +3268,11 @@
       <c r="F59" s="4">
         <v>3</v>
       </c>
-      <c r="G59" s="4">
-        <v>2.1709999999999998</v>
-      </c>
-      <c r="H59" s="4">
-        <v>1.468</v>
+      <c r="G59" s="9">
+        <v>2171</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1468</v>
       </c>
       <c r="I59" s="4">
         <v>261</v>
@@ -3273,7 +3287,7 @@
         <v>16</v>
       </c>
       <c r="M59" s="5">
-        <v>4.3879999999999999</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3295,8 +3309,8 @@
       <c r="F60" s="4">
         <v>141</v>
       </c>
-      <c r="G60" s="4">
-        <v>1.369</v>
+      <c r="G60" s="9">
+        <v>1369</v>
       </c>
       <c r="H60" s="4">
         <v>638</v>
@@ -3314,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="M60" s="5">
-        <v>3.11</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3353,7 +3367,7 @@
         <v>18</v>
       </c>
       <c r="M61" s="5">
-        <v>2.5339999999999998</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3394,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="M62" s="5">
-        <v>2.1739999999999999</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3433,7 +3447,7 @@
         <v>31</v>
       </c>
       <c r="M63" s="5">
-        <v>1.8080000000000001</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3474,7 +3488,7 @@
         <v>14</v>
       </c>
       <c r="M64" s="5">
-        <v>1.627</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3513,7 +3527,7 @@
         <v>15</v>
       </c>
       <c r="M65" s="5">
-        <v>1.4350000000000001</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3554,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="M66" s="5">
-        <v>1.0840000000000001</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3592,7 +3606,7 @@
       <c r="L67" s="4">
         <v>10</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>978</v>
       </c>
     </row>
@@ -3634,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="M68" s="5">
-        <v>1.0860000000000001</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3673,7 +3687,7 @@
         <v>16</v>
       </c>
       <c r="M69" s="5">
-        <v>1.034</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3713,7 +3727,7 @@
       <c r="L70" s="4">
         <v>2</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>997</v>
       </c>
     </row>
@@ -3752,7 +3766,7 @@
       <c r="L71" s="4">
         <v>14</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>888</v>
       </c>
     </row>
@@ -3793,7 +3807,7 @@
       <c r="L72" s="4">
         <v>2</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>808</v>
       </c>
     </row>
@@ -3832,7 +3846,7 @@
       <c r="L73" s="4">
         <v>8</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>760</v>
       </c>
     </row>
@@ -3873,7 +3887,7 @@
       <c r="L74" s="4">
         <v>2</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>673</v>
       </c>
     </row>
@@ -3912,7 +3926,7 @@
       <c r="L75" s="4">
         <v>29</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>778</v>
       </c>
     </row>
@@ -3953,7 +3967,7 @@
       <c r="L76" s="4">
         <v>2</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>497</v>
       </c>
     </row>
@@ -3992,7 +4006,7 @@
       <c r="L77" s="4">
         <v>21</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>558</v>
       </c>
     </row>
@@ -4033,7 +4047,7 @@
       <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>278</v>
       </c>
     </row>
@@ -4072,7 +4086,7 @@
       <c r="L79" s="4">
         <v>7</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>308</v>
       </c>
     </row>
@@ -4113,7 +4127,7 @@
       <c r="L80" s="4">
         <v>4</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>289</v>
       </c>
     </row>
@@ -4152,7 +4166,7 @@
       <c r="L81" s="4">
         <v>16</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>437</v>
       </c>
     </row>
@@ -4160,39 +4174,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
-        <v>2.8820000000000001</v>
+        <v>2882</v>
       </c>
       <c r="D82" s="5">
-        <v>4.9800000000000004</v>
+        <v>4980</v>
       </c>
       <c r="E82" s="5">
-        <v>5.9690000000000003</v>
+        <v>5969</v>
       </c>
       <c r="F82" s="5">
-        <v>2.0670000000000002</v>
+        <v>2067</v>
       </c>
       <c r="G82" s="5">
-        <v>8.8160000000000007</v>
+        <v>8816</v>
       </c>
       <c r="H82" s="5">
-        <v>5.3550000000000004</v>
+        <v>5355</v>
       </c>
       <c r="I82" s="5">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="J82" s="5">
+        <v>2599</v>
+      </c>
+      <c r="J82" s="6">
         <v>253</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>7</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>349</v>
       </c>
       <c r="M82" s="5">
-        <v>33.277000000000001</v>
+        <v>33277</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4272,7 +4286,7 @@
         <v>19</v>
       </c>
       <c r="M84" s="5">
-        <v>1.5880000000000001</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4311,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="M85" s="5">
-        <v>1.393</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4352,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="M86" s="5">
-        <v>1.077</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4390,7 +4404,7 @@
       <c r="L87" s="4">
         <v>3</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>768</v>
       </c>
     </row>
@@ -4431,7 +4445,7 @@
       <c r="L88" s="4">
         <v>3</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>727</v>
       </c>
     </row>
@@ -4470,7 +4484,7 @@
       <c r="L89" s="4">
         <v>1</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>539</v>
       </c>
     </row>
@@ -4511,7 +4525,7 @@
       <c r="L90" s="4">
         <v>4</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>497</v>
       </c>
     </row>
@@ -4550,7 +4564,7 @@
       <c r="L91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>406</v>
       </c>
     </row>
@@ -4591,7 +4605,7 @@
       <c r="L92" s="4">
         <v>4</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>572</v>
       </c>
     </row>
@@ -4630,7 +4644,7 @@
       <c r="L93" s="4">
         <v>2</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>506</v>
       </c>
     </row>
@@ -4671,7 +4685,7 @@
       <c r="L94" s="4">
         <v>1</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>426</v>
       </c>
     </row>
@@ -4710,7 +4724,7 @@
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>316</v>
       </c>
     </row>
@@ -4751,7 +4765,7 @@
       <c r="L96" s="4">
         <v>1</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>443</v>
       </c>
     </row>
@@ -4790,7 +4804,7 @@
       <c r="L97" s="4">
         <v>5</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>303</v>
       </c>
     </row>
@@ -4831,7 +4845,7 @@
       <c r="L98" s="4">
         <v>1</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>435</v>
       </c>
     </row>
@@ -4870,7 +4884,7 @@
       <c r="L99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>302</v>
       </c>
     </row>
@@ -4911,7 +4925,7 @@
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>298</v>
       </c>
     </row>
@@ -4950,7 +4964,7 @@
       <c r="L101" s="4">
         <v>2</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>262</v>
       </c>
     </row>
@@ -4991,7 +5005,7 @@
       <c r="L102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>193</v>
       </c>
     </row>
@@ -5030,7 +5044,7 @@
       <c r="L103" s="4">
         <v>2</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>235</v>
       </c>
     </row>
@@ -5071,7 +5085,7 @@
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>122</v>
       </c>
     </row>
@@ -5110,7 +5124,7 @@
       <c r="L105" s="4">
         <v>2</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>183</v>
       </c>
     </row>
@@ -5151,7 +5165,7 @@
       <c r="L106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>137</v>
       </c>
     </row>
@@ -5190,7 +5204,7 @@
       <c r="L107" s="4">
         <v>1</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>229</v>
       </c>
     </row>
@@ -5198,39 +5212,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
         <v>721</v>
       </c>
       <c r="D108" s="5">
-        <v>1.704</v>
+        <v>1704</v>
       </c>
       <c r="E108" s="5">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="F108" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F108" s="6">
         <v>900</v>
       </c>
       <c r="G108" s="5">
-        <v>2.4500000000000002</v>
+        <v>2450</v>
       </c>
       <c r="H108" s="5">
-        <v>2.9750000000000001</v>
+        <v>2975</v>
       </c>
       <c r="I108" s="5">
-        <v>1.046</v>
-      </c>
-      <c r="J108" s="5">
+        <v>1046</v>
+      </c>
+      <c r="J108" s="6">
         <v>86</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>3</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>55</v>
       </c>
       <c r="M108" s="5">
-        <v>11.957000000000001</v>
+        <v>11957</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5291,11 +5305,11 @@
       <c r="F110" s="4">
         <v>7</v>
       </c>
-      <c r="G110" s="4">
-        <v>2.673</v>
-      </c>
-      <c r="H110" s="4">
-        <v>4.54</v>
+      <c r="G110" s="9">
+        <v>2673</v>
+      </c>
+      <c r="H110" s="9">
+        <v>4540</v>
       </c>
       <c r="I110" s="4">
         <v>638</v>
@@ -5310,7 +5324,7 @@
         <v>78</v>
       </c>
       <c r="M110" s="5">
-        <v>8.0879999999999992</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5330,11 +5344,11 @@
       <c r="F111" s="4">
         <v>9</v>
       </c>
-      <c r="G111" s="4">
-        <v>2.5009999999999999</v>
-      </c>
-      <c r="H111" s="4">
-        <v>4.7350000000000003</v>
+      <c r="G111" s="9">
+        <v>2501</v>
+      </c>
+      <c r="H111" s="9">
+        <v>4735</v>
       </c>
       <c r="I111" s="4">
         <v>894</v>
@@ -5349,7 +5363,7 @@
         <v>21</v>
       </c>
       <c r="M111" s="5">
-        <v>8.4480000000000004</v>
+        <v>8448</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5371,14 +5385,14 @@
       <c r="F112" s="4">
         <v>105</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.554</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1.8080000000000001</v>
+      <c r="G112" s="9">
+        <v>1554</v>
+      </c>
+      <c r="H112" s="9">
+        <v>2018</v>
+      </c>
+      <c r="I112" s="9">
+        <v>1808</v>
       </c>
       <c r="J112" s="4">
         <v>82</v>
@@ -5390,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="M112" s="5">
-        <v>5.7839999999999998</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5410,14 +5424,14 @@
       <c r="F113" s="4">
         <v>227</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.609</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.4990000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1.99</v>
+      <c r="G113" s="9">
+        <v>1609</v>
+      </c>
+      <c r="H113" s="9">
+        <v>1499</v>
+      </c>
+      <c r="I113" s="9">
+        <v>1990</v>
       </c>
       <c r="J113" s="4">
         <v>110</v>
@@ -5429,7 +5443,7 @@
         <v>27</v>
       </c>
       <c r="M113" s="5">
-        <v>6.3220000000000001</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5454,11 +5468,11 @@
       <c r="G114" s="4">
         <v>654</v>
       </c>
-      <c r="H114" s="4">
-        <v>1.72</v>
-      </c>
-      <c r="I114" s="4">
-        <v>2.2149999999999999</v>
+      <c r="H114" s="9">
+        <v>1720</v>
+      </c>
+      <c r="I114" s="9">
+        <v>2215</v>
       </c>
       <c r="J114" s="4">
         <v>289</v>
@@ -5470,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="M114" s="5">
-        <v>6.024</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,17 +5501,17 @@
       <c r="E115" s="4">
         <v>398</v>
       </c>
-      <c r="F115" s="4">
-        <v>1.044</v>
+      <c r="F115" s="9">
+        <v>1044</v>
       </c>
       <c r="G115" s="4">
         <v>706</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.27</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1.583</v>
+      <c r="H115" s="9">
+        <v>1270</v>
+      </c>
+      <c r="I115" s="9">
+        <v>1583</v>
       </c>
       <c r="J115" s="4">
         <v>192</v>
@@ -5509,7 +5523,7 @@
         <v>26</v>
       </c>
       <c r="M115" s="5">
-        <v>6.18</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5534,11 +5548,11 @@
       <c r="G116" s="4">
         <v>463</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.484</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.4239999999999999</v>
+      <c r="H116" s="9">
+        <v>1484</v>
+      </c>
+      <c r="I116" s="9">
+        <v>1424</v>
       </c>
       <c r="J116" s="4">
         <v>267</v>
@@ -5550,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="M116" s="5">
-        <v>4.9660000000000002</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5589,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="M117" s="5">
-        <v>4.7119999999999997</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5614,8 +5628,8 @@
       <c r="G118" s="4">
         <v>684</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.3360000000000001</v>
+      <c r="H118" s="9">
+        <v>1336</v>
       </c>
       <c r="I118" s="4">
         <v>826</v>
@@ -5630,7 +5644,7 @@
         <v>17</v>
       </c>
       <c r="M118" s="5">
-        <v>4.3959999999999999</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5644,8 +5658,8 @@
       <c r="D119" s="4">
         <v>656</v>
       </c>
-      <c r="E119" s="4">
-        <v>1.371</v>
+      <c r="E119" s="9">
+        <v>1371</v>
       </c>
       <c r="F119" s="4">
         <v>398</v>
@@ -5669,7 +5683,7 @@
         <v>40</v>
       </c>
       <c r="M119" s="5">
-        <v>4.6909999999999998</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5710,7 +5724,7 @@
         <v>14</v>
       </c>
       <c r="M120" s="5">
-        <v>3.0960000000000001</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5749,7 +5763,7 @@
         <v>19</v>
       </c>
       <c r="M121" s="5">
-        <v>2.831</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5790,7 +5804,7 @@
         <v>7</v>
       </c>
       <c r="M122" s="5">
-        <v>2.4009999999999998</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5829,7 +5843,7 @@
         <v>18</v>
       </c>
       <c r="M123" s="5">
-        <v>2.1480000000000001</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5870,7 +5884,7 @@
         <v>6</v>
       </c>
       <c r="M124" s="5">
-        <v>2.0470000000000002</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5909,7 +5923,7 @@
         <v>24</v>
       </c>
       <c r="M125" s="5">
-        <v>1.9970000000000001</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5950,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="M126" s="5">
-        <v>1.4650000000000001</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5989,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="M127" s="5">
-        <v>1.4259999999999999</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6030,7 +6044,7 @@
         <v>5</v>
       </c>
       <c r="M128" s="5">
-        <v>1.0409999999999999</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6069,7 +6083,7 @@
         <v>18</v>
       </c>
       <c r="M129" s="5">
-        <v>1.1819999999999999</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6109,7 +6123,7 @@
       <c r="L130" s="4">
         <v>3</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>644</v>
       </c>
     </row>
@@ -6148,7 +6162,7 @@
       <c r="L131" s="4">
         <v>14</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>810</v>
       </c>
     </row>
@@ -6189,7 +6203,7 @@
       <c r="L132" s="4">
         <v>9</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>681</v>
       </c>
     </row>
@@ -6229,46 +6243,46 @@
         <v>44</v>
       </c>
       <c r="M133" s="5">
-        <v>1.0720000000000001</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>4.2300000000000004</v>
+        <v>4230</v>
       </c>
       <c r="D134" s="5">
-        <v>5.84</v>
+        <v>5840</v>
       </c>
       <c r="E134" s="5">
-        <v>9.8650000000000002</v>
+        <v>9865</v>
       </c>
       <c r="F134" s="5">
-        <v>7.5060000000000002</v>
+        <v>7506</v>
       </c>
       <c r="G134" s="5">
-        <v>14.632</v>
+        <v>14632</v>
       </c>
       <c r="H134" s="5">
-        <v>24.140999999999998</v>
+        <v>24141</v>
       </c>
       <c r="I134" s="5">
-        <v>14.141999999999999</v>
+        <v>14142</v>
       </c>
       <c r="J134" s="5">
-        <v>1.504</v>
-      </c>
-      <c r="K134" s="5">
+        <v>1504</v>
+      </c>
+      <c r="K134" s="6">
         <v>120</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="6">
         <v>472</v>
       </c>
       <c r="M134" s="5">
-        <v>82.451999999999998</v>
+        <v>82452</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6329,11 +6343,11 @@
       <c r="F136" s="4">
         <v>12</v>
       </c>
-      <c r="G136" s="4">
-        <v>5.5949999999999998</v>
-      </c>
-      <c r="H136" s="4">
-        <v>5.359</v>
+      <c r="G136" s="9">
+        <v>5595</v>
+      </c>
+      <c r="H136" s="9">
+        <v>5359</v>
       </c>
       <c r="I136" s="4">
         <v>734</v>
@@ -6348,7 +6362,7 @@
         <v>144</v>
       </c>
       <c r="M136" s="5">
-        <v>12.363</v>
+        <v>12363</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6368,11 +6382,11 @@
       <c r="F137" s="4">
         <v>3</v>
       </c>
-      <c r="G137" s="4">
-        <v>4.6509999999999998</v>
-      </c>
-      <c r="H137" s="4">
-        <v>4.9720000000000004</v>
+      <c r="G137" s="9">
+        <v>4651</v>
+      </c>
+      <c r="H137" s="9">
+        <v>4972</v>
       </c>
       <c r="I137" s="4">
         <v>998</v>
@@ -6387,7 +6401,7 @@
         <v>40</v>
       </c>
       <c r="M137" s="5">
-        <v>11.614000000000001</v>
+        <v>11614</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,14 +6423,14 @@
       <c r="F138" s="4">
         <v>231</v>
       </c>
-      <c r="G138" s="4">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="H138" s="4">
-        <v>2.052</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.855</v>
+      <c r="G138" s="9">
+        <v>2666</v>
+      </c>
+      <c r="H138" s="9">
+        <v>2052</v>
+      </c>
+      <c r="I138" s="9">
+        <v>1855</v>
       </c>
       <c r="J138" s="4">
         <v>188</v>
@@ -6428,7 +6442,7 @@
         <v>34</v>
       </c>
       <c r="M138" s="5">
-        <v>7.8890000000000002</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6439,8 +6453,8 @@
       <c r="C139" s="4">
         <v>354</v>
       </c>
-      <c r="D139" s="4">
-        <v>1.054</v>
+      <c r="D139" s="9">
+        <v>1054</v>
       </c>
       <c r="E139" s="4">
         <v>917</v>
@@ -6448,14 +6462,14 @@
       <c r="F139" s="4">
         <v>182</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="H139" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="I139" s="4">
-        <v>1.964</v>
+      <c r="G139" s="9">
+        <v>1745</v>
+      </c>
+      <c r="H139" s="9">
+        <v>1010</v>
+      </c>
+      <c r="I139" s="9">
+        <v>1964</v>
       </c>
       <c r="J139" s="4">
         <v>152</v>
@@ -6467,7 +6481,7 @@
         <v>49</v>
       </c>
       <c r="M139" s="5">
-        <v>7.4269999999999996</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6486,17 +6500,17 @@
       <c r="E140" s="4">
         <v>418</v>
       </c>
-      <c r="F140" s="4">
-        <v>1.3380000000000001</v>
+      <c r="F140" s="9">
+        <v>1338</v>
       </c>
       <c r="G140" s="4">
         <v>996</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.671</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.5629999999999999</v>
+      <c r="H140" s="9">
+        <v>1671</v>
+      </c>
+      <c r="I140" s="9">
+        <v>1563</v>
       </c>
       <c r="J140" s="4">
         <v>284</v>
@@ -6508,7 +6522,7 @@
         <v>20</v>
       </c>
       <c r="M140" s="5">
-        <v>6.8</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6519,14 +6533,14 @@
       <c r="C141" s="4">
         <v>593</v>
       </c>
-      <c r="D141" s="4">
-        <v>1.554</v>
+      <c r="D141" s="9">
+        <v>1554</v>
       </c>
       <c r="E141" s="4">
         <v>654</v>
       </c>
-      <c r="F141" s="4">
-        <v>1.044</v>
+      <c r="F141" s="9">
+        <v>1044</v>
       </c>
       <c r="G141" s="4">
         <v>469</v>
@@ -6534,8 +6548,8 @@
       <c r="H141" s="4">
         <v>680</v>
       </c>
-      <c r="I141" s="4">
-        <v>1.028</v>
+      <c r="I141" s="9">
+        <v>1028</v>
       </c>
       <c r="J141" s="4">
         <v>167</v>
@@ -6547,7 +6561,7 @@
         <v>54</v>
       </c>
       <c r="M141" s="5">
-        <v>6.2439999999999998</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6572,8 +6586,8 @@
       <c r="G142" s="4">
         <v>685</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.4530000000000001</v>
+      <c r="H142" s="9">
+        <v>1453</v>
       </c>
       <c r="I142" s="4">
         <v>831</v>
@@ -6588,7 +6602,7 @@
         <v>26</v>
       </c>
       <c r="M142" s="5">
-        <v>5.3390000000000004</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6602,8 +6616,8 @@
       <c r="D143" s="4">
         <v>872</v>
       </c>
-      <c r="E143" s="4">
-        <v>1.5029999999999999</v>
+      <c r="E143" s="9">
+        <v>1503</v>
       </c>
       <c r="F143" s="4">
         <v>506</v>
@@ -6627,7 +6641,7 @@
         <v>44</v>
       </c>
       <c r="M143" s="5">
-        <v>4.7569999999999997</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6643,8 +6657,8 @@
       <c r="D144" s="4">
         <v>162</v>
       </c>
-      <c r="E144" s="4">
-        <v>1.0920000000000001</v>
+      <c r="E144" s="9">
+        <v>1092</v>
       </c>
       <c r="F144" s="4">
         <v>705</v>
@@ -6652,8 +6666,8 @@
       <c r="G144" s="4">
         <v>933</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.4370000000000001</v>
+      <c r="H144" s="9">
+        <v>1437</v>
       </c>
       <c r="I144" s="4">
         <v>472</v>
@@ -6668,7 +6682,7 @@
         <v>6</v>
       </c>
       <c r="M144" s="5">
-        <v>4.9660000000000002</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6682,8 +6696,8 @@
       <c r="D145" s="4">
         <v>914</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.8320000000000001</v>
+      <c r="E145" s="9">
+        <v>1832</v>
       </c>
       <c r="F145" s="4">
         <v>259</v>
@@ -6707,7 +6721,7 @@
         <v>34</v>
       </c>
       <c r="M145" s="5">
-        <v>4.7169999999999996</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6748,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="M146" s="5">
-        <v>3.6589999999999998</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6762,8 +6776,8 @@
       <c r="D147" s="4">
         <v>661</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.335</v>
+      <c r="E147" s="9">
+        <v>1335</v>
       </c>
       <c r="F147" s="4">
         <v>166</v>
@@ -6787,7 +6801,7 @@
         <v>35</v>
       </c>
       <c r="M147" s="5">
-        <v>3.3220000000000001</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6828,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="M148" s="5">
-        <v>3.335</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6842,8 +6856,8 @@
       <c r="D149" s="4">
         <v>820</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.3</v>
+      <c r="E149" s="9">
+        <v>1300</v>
       </c>
       <c r="F149" s="4">
         <v>128</v>
@@ -6867,7 +6881,7 @@
         <v>22</v>
       </c>
       <c r="M149" s="5">
-        <v>3.33</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6908,7 +6922,7 @@
         <v>9</v>
       </c>
       <c r="M150" s="5">
-        <v>2.9239999999999999</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6947,7 +6961,7 @@
         <v>21</v>
       </c>
       <c r="M151" s="5">
-        <v>2.399</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6988,7 +7002,7 @@
         <v>4</v>
       </c>
       <c r="M152" s="5">
-        <v>2.1349999999999998</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7027,7 +7041,7 @@
         <v>19</v>
       </c>
       <c r="M153" s="5">
-        <v>2.1789999999999998</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7068,7 +7082,7 @@
         <v>4</v>
       </c>
       <c r="M154" s="5">
-        <v>1.5589999999999999</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7107,7 +7121,7 @@
         <v>18</v>
       </c>
       <c r="M155" s="5">
-        <v>1.8140000000000001</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7148,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="M156" s="5">
-        <v>1.0840000000000001</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7187,7 +7201,7 @@
         <v>16</v>
       </c>
       <c r="M157" s="5">
-        <v>1.2629999999999999</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7228,7 +7242,7 @@
         <v>5</v>
       </c>
       <c r="M158" s="5">
-        <v>1.2290000000000001</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7236,8 +7250,8 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.1459999999999999</v>
+      <c r="C159" s="9">
+        <v>1146</v>
       </c>
       <c r="D159" s="4">
         <v>277</v>
@@ -7267,46 +7281,46 @@
         <v>45</v>
       </c>
       <c r="M159" s="5">
-        <v>1.6919999999999999</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>8.0250000000000004</v>
+        <v>8025</v>
       </c>
       <c r="D160" s="5">
-        <v>11.02</v>
+        <v>11020</v>
       </c>
       <c r="E160" s="5">
-        <v>18.928999999999998</v>
+        <v>18929</v>
       </c>
       <c r="F160" s="5">
-        <v>7.6020000000000003</v>
+        <v>7602</v>
       </c>
       <c r="G160" s="5">
-        <v>21.798999999999999</v>
+        <v>21799</v>
       </c>
       <c r="H160" s="5">
-        <v>23.542000000000002</v>
+        <v>23542</v>
       </c>
       <c r="I160" s="5">
-        <v>11.129</v>
+        <v>11129</v>
       </c>
       <c r="J160" s="5">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="K160" s="5">
+        <v>1265</v>
+      </c>
+      <c r="K160" s="6">
         <v>57</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>672</v>
       </c>
       <c r="M160" s="5">
-        <v>104.04</v>
+        <v>104040</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7386,7 +7400,7 @@
         <v>22</v>
       </c>
       <c r="M162" s="5">
-        <v>1.774</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7409,8 +7423,8 @@
       <c r="G163" s="4">
         <v>685</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.0049999999999999</v>
+      <c r="H163" s="9">
+        <v>1005</v>
       </c>
       <c r="I163" s="4">
         <v>203</v>
@@ -7425,7 +7439,7 @@
         <v>6</v>
       </c>
       <c r="M163" s="5">
-        <v>1.956</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7466,7 +7480,7 @@
         <v>5</v>
       </c>
       <c r="M164" s="5">
-        <v>1.2190000000000001</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7505,7 +7519,7 @@
         <v>15</v>
       </c>
       <c r="M165" s="5">
-        <v>1.147</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7546,7 +7560,7 @@
         <v>6</v>
       </c>
       <c r="M166" s="5">
-        <v>1.06</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7584,7 +7598,7 @@
       <c r="L167" s="4">
         <v>3</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="6">
         <v>956</v>
       </c>
     </row>
@@ -7625,7 +7639,7 @@
       <c r="L168" s="4">
         <v>3</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="6">
         <v>874</v>
       </c>
     </row>
@@ -7664,7 +7678,7 @@
       <c r="L169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>721</v>
       </c>
     </row>
@@ -7705,7 +7719,7 @@
       <c r="L170" s="4">
         <v>2</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="6">
         <v>812</v>
       </c>
     </row>
@@ -7744,7 +7758,7 @@
       <c r="L171" s="4">
         <v>1</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="6">
         <v>905</v>
       </c>
     </row>
@@ -7785,7 +7799,7 @@
       <c r="L172" s="4">
         <v>2</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>625</v>
       </c>
     </row>
@@ -7824,7 +7838,7 @@
       <c r="L173" s="4">
         <v>6</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>611</v>
       </c>
     </row>
@@ -7865,7 +7879,7 @@
       <c r="L174" s="4">
         <v>2</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>626</v>
       </c>
     </row>
@@ -7904,7 +7918,7 @@
       <c r="L175" s="4">
         <v>2</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>628</v>
       </c>
     </row>
@@ -7945,7 +7959,7 @@
       <c r="L176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>653</v>
       </c>
     </row>
@@ -7984,7 +7998,7 @@
       <c r="L177" s="4">
         <v>6</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>568</v>
       </c>
     </row>
@@ -8025,7 +8039,7 @@
       <c r="L178" s="4">
         <v>2</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>493</v>
       </c>
     </row>
@@ -8064,7 +8078,7 @@
       <c r="L179" s="4">
         <v>1</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>448</v>
       </c>
     </row>
@@ -8105,7 +8119,7 @@
       <c r="L180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>363</v>
       </c>
     </row>
@@ -8144,7 +8158,7 @@
       <c r="L181" s="4">
         <v>6</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>384</v>
       </c>
     </row>
@@ -8185,7 +8199,7 @@
       <c r="L182" s="4">
         <v>1</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>268</v>
       </c>
     </row>
@@ -8224,7 +8238,7 @@
       <c r="L183" s="4">
         <v>6</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>379</v>
       </c>
     </row>
@@ -8265,7 +8279,7 @@
       <c r="L184" s="4">
         <v>1</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>291</v>
       </c>
     </row>
@@ -8304,7 +8318,7 @@
       <c r="L185" s="4">
         <v>5</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="6">
         <v>439</v>
       </c>
     </row>
@@ -8312,39 +8326,39 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
         <v>822</v>
       </c>
       <c r="D186" s="5">
-        <v>1.47</v>
+        <v>1470</v>
       </c>
       <c r="E186" s="5">
-        <v>3.714</v>
+        <v>3714</v>
       </c>
       <c r="F186" s="5">
-        <v>1.6839999999999999</v>
+        <v>1684</v>
       </c>
       <c r="G186" s="5">
-        <v>3.5590000000000002</v>
+        <v>3559</v>
       </c>
       <c r="H186" s="5">
-        <v>4.6139999999999999</v>
+        <v>4614</v>
       </c>
       <c r="I186" s="5">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="J186" s="5">
+        <v>2062</v>
+      </c>
+      <c r="J186" s="6">
         <v>166</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>21</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>88</v>
       </c>
       <c r="M186" s="5">
-        <v>18.2</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8405,8 +8419,8 @@
       <c r="F188" s="4">
         <v>3</v>
       </c>
-      <c r="G188" s="4">
-        <v>1.097</v>
+      <c r="G188" s="9">
+        <v>1097</v>
       </c>
       <c r="H188" s="4">
         <v>912</v>
@@ -8424,7 +8438,7 @@
         <v>20</v>
       </c>
       <c r="M188" s="5">
-        <v>2.3849999999999998</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8463,7 +8477,7 @@
         <v>2</v>
       </c>
       <c r="M189" s="5">
-        <v>2.4009999999999998</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8504,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="M190" s="5">
-        <v>1.831</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8543,7 +8557,7 @@
         <v>5</v>
       </c>
       <c r="M191" s="5">
-        <v>1.2749999999999999</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8584,7 +8598,7 @@
         <v>3</v>
       </c>
       <c r="M192" s="5">
-        <v>1.286</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8623,7 +8637,7 @@
         <v>2</v>
       </c>
       <c r="M193" s="5">
-        <v>1.038</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8664,7 +8678,7 @@
         <v>3</v>
       </c>
       <c r="M194" s="5">
-        <v>1.0620000000000001</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8702,7 +8716,7 @@
       <c r="L195" s="4">
         <v>5</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="6">
         <v>834</v>
       </c>
     </row>
@@ -8743,7 +8757,7 @@
       <c r="L196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="6">
         <v>981</v>
       </c>
     </row>
@@ -8782,7 +8796,7 @@
       <c r="L197" s="4">
         <v>6</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="6">
         <v>858</v>
       </c>
     </row>
@@ -8823,7 +8837,7 @@
       <c r="L198" s="4">
         <v>3</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="6">
         <v>740</v>
       </c>
     </row>
@@ -8862,7 +8876,7 @@
       <c r="L199" s="4">
         <v>4</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="6">
         <v>588</v>
       </c>
     </row>
@@ -8903,7 +8917,7 @@
       <c r="L200" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="6">
         <v>685</v>
       </c>
     </row>
@@ -8942,7 +8956,7 @@
       <c r="L201" s="4">
         <v>1</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="6">
         <v>511</v>
       </c>
     </row>
@@ -8983,7 +8997,7 @@
       <c r="L202" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="6">
         <v>746</v>
       </c>
     </row>
@@ -9022,7 +9036,7 @@
       <c r="L203" s="4">
         <v>2</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="6">
         <v>640</v>
       </c>
     </row>
@@ -9063,7 +9077,7 @@
       <c r="L204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="6">
         <v>513</v>
       </c>
     </row>
@@ -9102,7 +9116,7 @@
       <c r="L205" s="4">
         <v>1</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="6">
         <v>497</v>
       </c>
     </row>
@@ -9143,7 +9157,7 @@
       <c r="L206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>365</v>
       </c>
     </row>
@@ -9182,7 +9196,7 @@
       <c r="L207" s="4">
         <v>6</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="6">
         <v>471</v>
       </c>
     </row>
@@ -9223,7 +9237,7 @@
       <c r="L208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>238</v>
       </c>
     </row>
@@ -9262,7 +9276,7 @@
       <c r="L209" s="4">
         <v>3</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>261</v>
       </c>
     </row>
@@ -9303,7 +9317,7 @@
       <c r="L210" s="4">
         <v>2</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="6">
         <v>237</v>
       </c>
     </row>
@@ -9342,7 +9356,7 @@
       <c r="L211" s="4">
         <v>6</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="6">
         <v>332</v>
       </c>
     </row>
@@ -9350,39 +9364,39 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="5">
-        <v>1.641</v>
+        <v>1641</v>
       </c>
       <c r="D212" s="5">
-        <v>3.1640000000000001</v>
+        <v>3164</v>
       </c>
       <c r="E212" s="5">
-        <v>4.1959999999999997</v>
+        <v>4196</v>
       </c>
       <c r="F212" s="5">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="G212" s="5">
-        <v>4.3929999999999998</v>
+        <v>4393</v>
       </c>
       <c r="H212" s="5">
-        <v>3.9569999999999999</v>
+        <v>3957</v>
       </c>
       <c r="I212" s="5">
-        <v>1.429</v>
-      </c>
-      <c r="J212" s="5">
+        <v>1429</v>
+      </c>
+      <c r="J212" s="6">
         <v>107</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>8</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>80</v>
       </c>
       <c r="M212" s="5">
-        <v>20.774999999999999</v>
+        <v>20775</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9443,14 +9457,14 @@
       <c r="F214" s="4">
         <v>14</v>
       </c>
-      <c r="G214" s="4">
-        <v>7.4560000000000004</v>
-      </c>
-      <c r="H214" s="4">
-        <v>12.269</v>
-      </c>
-      <c r="I214" s="4">
-        <v>1.841</v>
+      <c r="G214" s="9">
+        <v>7456</v>
+      </c>
+      <c r="H214" s="9">
+        <v>12269</v>
+      </c>
+      <c r="I214" s="9">
+        <v>1841</v>
       </c>
       <c r="J214" s="4">
         <v>26</v>
@@ -9462,7 +9476,7 @@
         <v>193</v>
       </c>
       <c r="M214" s="5">
-        <v>22.247</v>
+        <v>22247</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9482,14 +9496,14 @@
       <c r="F215" s="4">
         <v>7</v>
       </c>
-      <c r="G215" s="4">
-        <v>6.44</v>
-      </c>
-      <c r="H215" s="4">
-        <v>13.340999999999999</v>
-      </c>
-      <c r="I215" s="4">
-        <v>2.6120000000000001</v>
+      <c r="G215" s="9">
+        <v>6440</v>
+      </c>
+      <c r="H215" s="9">
+        <v>13341</v>
+      </c>
+      <c r="I215" s="9">
+        <v>2612</v>
       </c>
       <c r="J215" s="4">
         <v>21</v>
@@ -9501,7 +9515,7 @@
         <v>56</v>
       </c>
       <c r="M215" s="5">
-        <v>23.254999999999999</v>
+        <v>23255</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9523,14 +9537,14 @@
       <c r="F216" s="4">
         <v>349</v>
       </c>
-      <c r="G216" s="4">
-        <v>3.91</v>
-      </c>
-      <c r="H216" s="4">
-        <v>5.23</v>
-      </c>
-      <c r="I216" s="4">
-        <v>5.5759999999999996</v>
+      <c r="G216" s="9">
+        <v>3910</v>
+      </c>
+      <c r="H216" s="9">
+        <v>5230</v>
+      </c>
+      <c r="I216" s="9">
+        <v>5576</v>
       </c>
       <c r="J216" s="4">
         <v>556</v>
@@ -9542,7 +9556,7 @@
         <v>51</v>
       </c>
       <c r="M216" s="5">
-        <v>16.18</v>
+        <v>16180</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9553,8 +9567,8 @@
       <c r="C217" s="4">
         <v>320</v>
       </c>
-      <c r="D217" s="4">
-        <v>1.1100000000000001</v>
+      <c r="D217" s="9">
+        <v>1110</v>
       </c>
       <c r="E217" s="4">
         <v>950</v>
@@ -9562,14 +9576,14 @@
       <c r="F217" s="4">
         <v>522</v>
       </c>
-      <c r="G217" s="4">
-        <v>3.649</v>
-      </c>
-      <c r="H217" s="4">
-        <v>3.9790000000000001</v>
-      </c>
-      <c r="I217" s="4">
-        <v>6.7619999999999996</v>
+      <c r="G217" s="9">
+        <v>3649</v>
+      </c>
+      <c r="H217" s="9">
+        <v>3979</v>
+      </c>
+      <c r="I217" s="9">
+        <v>6762</v>
       </c>
       <c r="J217" s="4">
         <v>609</v>
@@ -9581,7 +9595,7 @@
         <v>81</v>
       </c>
       <c r="M217" s="5">
-        <v>17.984000000000002</v>
+        <v>17984</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9600,20 +9614,20 @@
       <c r="E218" s="4">
         <v>300</v>
       </c>
-      <c r="F218" s="4">
-        <v>2.173</v>
-      </c>
-      <c r="G218" s="4">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="H218" s="4">
-        <v>4.4450000000000003</v>
-      </c>
-      <c r="I218" s="4">
-        <v>5.867</v>
-      </c>
-      <c r="J218" s="4">
-        <v>1.165</v>
+      <c r="F218" s="9">
+        <v>2173</v>
+      </c>
+      <c r="G218" s="9">
+        <v>1719</v>
+      </c>
+      <c r="H218" s="9">
+        <v>4445</v>
+      </c>
+      <c r="I218" s="9">
+        <v>5867</v>
+      </c>
+      <c r="J218" s="9">
+        <v>1165</v>
       </c>
       <c r="K218" s="4">
         <v>41</v>
@@ -9622,7 +9636,7 @@
         <v>50</v>
       </c>
       <c r="M218" s="5">
-        <v>16.109000000000002</v>
+        <v>16109</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9633,23 +9647,23 @@
       <c r="C219" s="4">
         <v>714</v>
       </c>
-      <c r="D219" s="4">
-        <v>1.97</v>
+      <c r="D219" s="9">
+        <v>1970</v>
       </c>
       <c r="E219" s="4">
         <v>907</v>
       </c>
-      <c r="F219" s="4">
-        <v>2.379</v>
-      </c>
-      <c r="G219" s="4">
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="H219" s="4">
-        <v>3.14</v>
-      </c>
-      <c r="I219" s="4">
-        <v>5.18</v>
+      <c r="F219" s="9">
+        <v>2379</v>
+      </c>
+      <c r="G219" s="9">
+        <v>1533</v>
+      </c>
+      <c r="H219" s="9">
+        <v>3140</v>
+      </c>
+      <c r="I219" s="9">
+        <v>5180</v>
       </c>
       <c r="J219" s="4">
         <v>830</v>
@@ -9661,7 +9675,7 @@
         <v>104</v>
       </c>
       <c r="M219" s="5">
-        <v>16.79</v>
+        <v>16790</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9680,17 +9694,17 @@
       <c r="E220" s="4">
         <v>683</v>
       </c>
-      <c r="F220" s="4">
-        <v>2.2469999999999999</v>
-      </c>
-      <c r="G220" s="4">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="H220" s="4">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="I220" s="4">
-        <v>3.8410000000000002</v>
+      <c r="F220" s="9">
+        <v>2247</v>
+      </c>
+      <c r="G220" s="9">
+        <v>1065</v>
+      </c>
+      <c r="H220" s="9">
+        <v>4092</v>
+      </c>
+      <c r="I220" s="9">
+        <v>3841</v>
       </c>
       <c r="J220" s="4">
         <v>929</v>
@@ -9702,7 +9716,7 @@
         <v>72</v>
       </c>
       <c r="M220" s="5">
-        <v>13.289</v>
+        <v>13289</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9713,23 +9727,23 @@
       <c r="C221" s="4">
         <v>785</v>
       </c>
-      <c r="D221" s="4">
-        <v>1.43</v>
-      </c>
-      <c r="E221" s="4">
-        <v>2.2309999999999999</v>
-      </c>
-      <c r="F221" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="G221" s="4">
-        <v>1.089</v>
-      </c>
-      <c r="H221" s="4">
-        <v>2.7330000000000001</v>
-      </c>
-      <c r="I221" s="4">
-        <v>2.4340000000000002</v>
+      <c r="D221" s="9">
+        <v>1430</v>
+      </c>
+      <c r="E221" s="9">
+        <v>2231</v>
+      </c>
+      <c r="F221" s="9">
+        <v>1600</v>
+      </c>
+      <c r="G221" s="9">
+        <v>1089</v>
+      </c>
+      <c r="H221" s="9">
+        <v>2733</v>
+      </c>
+      <c r="I221" s="9">
+        <v>2434</v>
       </c>
       <c r="J221" s="4">
         <v>392</v>
@@ -9741,7 +9755,7 @@
         <v>100</v>
       </c>
       <c r="M221" s="5">
-        <v>12.837999999999999</v>
+        <v>12838</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9757,20 +9771,20 @@
       <c r="D222" s="4">
         <v>191</v>
       </c>
-      <c r="E222" s="4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F222" s="4">
-        <v>2.0840000000000001</v>
-      </c>
-      <c r="G222" s="4">
-        <v>1.7410000000000001</v>
-      </c>
-      <c r="H222" s="4">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="I222" s="4">
-        <v>2.375</v>
+      <c r="E222" s="9">
+        <v>1150</v>
+      </c>
+      <c r="F222" s="9">
+        <v>2084</v>
+      </c>
+      <c r="G222" s="9">
+        <v>1741</v>
+      </c>
+      <c r="H222" s="9">
+        <v>3866</v>
+      </c>
+      <c r="I222" s="9">
+        <v>2375</v>
       </c>
       <c r="J222" s="4">
         <v>709</v>
@@ -9782,7 +9796,7 @@
         <v>59</v>
       </c>
       <c r="M222" s="5">
-        <v>12.359</v>
+        <v>12359</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9793,23 +9807,23 @@
       <c r="C223" s="4">
         <v>951</v>
       </c>
-      <c r="D223" s="4">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="E223" s="4">
-        <v>3.0960000000000001</v>
+      <c r="D223" s="9">
+        <v>1626</v>
+      </c>
+      <c r="E223" s="9">
+        <v>3096</v>
       </c>
       <c r="F223" s="4">
         <v>999</v>
       </c>
-      <c r="G223" s="4">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="H223" s="4">
-        <v>2.411</v>
-      </c>
-      <c r="I223" s="4">
-        <v>1.4319999999999999</v>
+      <c r="G223" s="9">
+        <v>1565</v>
+      </c>
+      <c r="H223" s="9">
+        <v>2411</v>
+      </c>
+      <c r="I223" s="9">
+        <v>1432</v>
       </c>
       <c r="J223" s="4">
         <v>268</v>
@@ -9821,7 +9835,7 @@
         <v>86</v>
       </c>
       <c r="M223" s="5">
-        <v>12.474</v>
+        <v>12474</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9840,17 +9854,17 @@
       <c r="E224" s="4">
         <v>917</v>
       </c>
-      <c r="F224" s="4">
-        <v>1.514</v>
-      </c>
-      <c r="G224" s="4">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="H224" s="4">
-        <v>2.8239999999999998</v>
-      </c>
-      <c r="I224" s="4">
-        <v>1.5029999999999999</v>
+      <c r="F224" s="9">
+        <v>1514</v>
+      </c>
+      <c r="G224" s="9">
+        <v>1201</v>
+      </c>
+      <c r="H224" s="9">
+        <v>2824</v>
+      </c>
+      <c r="I224" s="9">
+        <v>1503</v>
       </c>
       <c r="J224" s="4">
         <v>312</v>
@@ -9862,7 +9876,7 @@
         <v>29</v>
       </c>
       <c r="M224" s="5">
-        <v>8.5649999999999995</v>
+        <v>8565</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9873,20 +9887,20 @@
       <c r="C225" s="4">
         <v>750</v>
       </c>
-      <c r="D225" s="4">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="E225" s="4">
-        <v>2.2949999999999999</v>
+      <c r="D225" s="9">
+        <v>1174</v>
+      </c>
+      <c r="E225" s="9">
+        <v>2295</v>
       </c>
       <c r="F225" s="4">
         <v>679</v>
       </c>
-      <c r="G225" s="4">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="H225" s="4">
-        <v>1.5029999999999999</v>
+      <c r="G225" s="9">
+        <v>1136</v>
+      </c>
+      <c r="H225" s="9">
+        <v>1503</v>
       </c>
       <c r="I225" s="4">
         <v>682</v>
@@ -9901,7 +9915,7 @@
         <v>74</v>
       </c>
       <c r="M225" s="5">
-        <v>8.42</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9920,17 +9934,17 @@
       <c r="E226" s="4">
         <v>889</v>
       </c>
-      <c r="F226" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G226" s="4">
-        <v>1.218</v>
-      </c>
-      <c r="H226" s="4">
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="I226" s="4">
-        <v>1.04</v>
+      <c r="F226" s="9">
+        <v>1300</v>
+      </c>
+      <c r="G226" s="9">
+        <v>1218</v>
+      </c>
+      <c r="H226" s="9">
+        <v>1934</v>
+      </c>
+      <c r="I226" s="9">
+        <v>1040</v>
       </c>
       <c r="J226" s="4">
         <v>186</v>
@@ -9942,7 +9956,7 @@
         <v>28</v>
       </c>
       <c r="M226" s="5">
-        <v>6.8550000000000004</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9953,11 +9967,11 @@
       <c r="C227" s="4">
         <v>784</v>
       </c>
-      <c r="D227" s="4">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="E227" s="4">
-        <v>1.7709999999999999</v>
+      <c r="D227" s="9">
+        <v>1098</v>
+      </c>
+      <c r="E227" s="9">
+        <v>1771</v>
       </c>
       <c r="F227" s="4">
         <v>514</v>
@@ -9965,8 +9979,8 @@
       <c r="G227" s="4">
         <v>807</v>
       </c>
-      <c r="H227" s="4">
-        <v>1.024</v>
+      <c r="H227" s="9">
+        <v>1024</v>
       </c>
       <c r="I227" s="4">
         <v>328</v>
@@ -9981,7 +9995,7 @@
         <v>50</v>
       </c>
       <c r="M227" s="5">
-        <v>6.431</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10000,14 +10014,14 @@
       <c r="E228" s="4">
         <v>984</v>
       </c>
-      <c r="F228" s="4">
-        <v>1.0740000000000001</v>
+      <c r="F228" s="9">
+        <v>1074</v>
       </c>
       <c r="G228" s="4">
         <v>987</v>
       </c>
-      <c r="H228" s="4">
-        <v>1.655</v>
+      <c r="H228" s="9">
+        <v>1655</v>
       </c>
       <c r="I228" s="4">
         <v>738</v>
@@ -10022,7 +10036,7 @@
         <v>20</v>
       </c>
       <c r="M228" s="5">
-        <v>5.8869999999999996</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10033,11 +10047,11 @@
       <c r="C229" s="4">
         <v>937</v>
       </c>
-      <c r="D229" s="4">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="E229" s="4">
-        <v>1.5549999999999999</v>
+      <c r="D229" s="9">
+        <v>1188</v>
+      </c>
+      <c r="E229" s="9">
+        <v>1555</v>
       </c>
       <c r="F229" s="4">
         <v>348</v>
@@ -10061,7 +10075,7 @@
         <v>54</v>
       </c>
       <c r="M229" s="5">
-        <v>5.407</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10086,8 +10100,8 @@
       <c r="G230" s="4">
         <v>570</v>
       </c>
-      <c r="H230" s="4">
-        <v>1.2170000000000001</v>
+      <c r="H230" s="9">
+        <v>1217</v>
       </c>
       <c r="I230" s="4">
         <v>533</v>
@@ -10102,7 +10116,7 @@
         <v>12</v>
       </c>
       <c r="M230" s="5">
-        <v>4.2160000000000002</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10110,14 +10124,14 @@
       <c r="B231" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="4">
-        <v>1.0249999999999999</v>
+      <c r="C231" s="9">
+        <v>1025</v>
       </c>
       <c r="D231" s="4">
         <v>955</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.204</v>
+      <c r="E231" s="9">
+        <v>1204</v>
       </c>
       <c r="F231" s="4">
         <v>179</v>
@@ -10141,7 +10155,7 @@
         <v>52</v>
       </c>
       <c r="M231" s="5">
-        <v>4.2690000000000001</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10182,7 +10196,7 @@
         <v>13</v>
       </c>
       <c r="M232" s="5">
-        <v>3.0129999999999999</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10190,8 +10204,8 @@
       <c r="B233" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C233" s="4">
-        <v>1.2010000000000001</v>
+      <c r="C233" s="9">
+        <v>1201</v>
       </c>
       <c r="D233" s="4">
         <v>776</v>
@@ -10221,7 +10235,7 @@
         <v>41</v>
       </c>
       <c r="M233" s="5">
-        <v>3.4750000000000001</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10262,7 +10276,7 @@
         <v>10</v>
       </c>
       <c r="M234" s="5">
-        <v>1.96</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10270,8 +10284,8 @@
       <c r="B235" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="4">
-        <v>1.1100000000000001</v>
+      <c r="C235" s="9">
+        <v>1110</v>
       </c>
       <c r="D235" s="4">
         <v>511</v>
@@ -10301,7 +10315,7 @@
         <v>50</v>
       </c>
       <c r="M235" s="5">
-        <v>2.4119999999999999</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10342,7 +10356,7 @@
         <v>19</v>
       </c>
       <c r="M236" s="5">
-        <v>1.946</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10350,8 +10364,8 @@
       <c r="B237" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="4">
-        <v>1.8520000000000001</v>
+      <c r="C237" s="9">
+        <v>1852</v>
       </c>
       <c r="D237" s="4">
         <v>513</v>
@@ -10381,46 +10395,46 @@
         <v>103</v>
       </c>
       <c r="M237" s="5">
-        <v>2.9609999999999999</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="5">
-        <v>11.778</v>
+        <v>11778</v>
       </c>
       <c r="D238" s="5">
-        <v>15.276999999999999</v>
+        <v>15277</v>
       </c>
       <c r="E238" s="5">
-        <v>24.675999999999998</v>
+        <v>24676</v>
       </c>
       <c r="F238" s="5">
-        <v>19.206</v>
+        <v>19206</v>
       </c>
       <c r="G238" s="5">
-        <v>37.994</v>
+        <v>37994</v>
       </c>
       <c r="H238" s="5">
-        <v>68.415999999999997</v>
+        <v>68416</v>
       </c>
       <c r="I238" s="5">
-        <v>43.622999999999998</v>
+        <v>43623</v>
       </c>
       <c r="J238" s="5">
-        <v>6.3120000000000003</v>
-      </c>
-      <c r="K238" s="5">
+        <v>6312</v>
+      </c>
+      <c r="K238" s="6">
         <v>653</v>
       </c>
       <c r="L238" s="5">
-        <v>1.407</v>
+        <v>1407</v>
       </c>
       <c r="M238" s="5">
-        <v>229.34200000000001</v>
+        <v>229342</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10481,11 +10495,11 @@
       <c r="F240" s="4">
         <v>1</v>
       </c>
-      <c r="G240" s="4">
-        <v>1.62</v>
-      </c>
-      <c r="H240" s="4">
-        <v>1.4770000000000001</v>
+      <c r="G240" s="9">
+        <v>1620</v>
+      </c>
+      <c r="H240" s="9">
+        <v>1477</v>
       </c>
       <c r="I240" s="4">
         <v>232</v>
@@ -10500,7 +10514,7 @@
         <v>48</v>
       </c>
       <c r="M240" s="5">
-        <v>3.5270000000000001</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10520,11 +10534,11 @@
       <c r="F241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G241" s="4">
-        <v>1.355</v>
-      </c>
-      <c r="H241" s="4">
-        <v>1.4019999999999999</v>
+      <c r="G241" s="9">
+        <v>1355</v>
+      </c>
+      <c r="H241" s="9">
+        <v>1402</v>
       </c>
       <c r="I241" s="4">
         <v>259</v>
@@ -10539,7 +10553,7 @@
         <v>5</v>
       </c>
       <c r="M241" s="5">
-        <v>3.3340000000000001</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10580,7 +10594,7 @@
         <v>6</v>
       </c>
       <c r="M242" s="5">
-        <v>2.17</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10619,7 +10633,7 @@
         <v>9</v>
       </c>
       <c r="M243" s="5">
-        <v>1.954</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10660,7 +10674,7 @@
         <v>2</v>
       </c>
       <c r="M244" s="5">
-        <v>1.802</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10699,7 +10713,7 @@
         <v>9</v>
       </c>
       <c r="M245" s="5">
-        <v>1.5229999999999999</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10740,7 +10754,7 @@
         <v>6</v>
       </c>
       <c r="M246" s="5">
-        <v>1.4179999999999999</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10779,7 +10793,7 @@
         <v>8</v>
       </c>
       <c r="M247" s="5">
-        <v>1.2010000000000001</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10820,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="M248" s="5">
-        <v>1.075</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10858,7 +10872,7 @@
       <c r="L249" s="4">
         <v>5</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>944</v>
       </c>
     </row>
@@ -10900,7 +10914,7 @@
         <v>3</v>
       </c>
       <c r="M250" s="5">
-        <v>1.05</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10938,7 +10952,7 @@
       <c r="L251" s="4">
         <v>5</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>853</v>
       </c>
     </row>
@@ -10979,7 +10993,7 @@
       <c r="L252" s="4">
         <v>4</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>868</v>
       </c>
     </row>
@@ -11018,7 +11032,7 @@
       <c r="L253" s="4">
         <v>8</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>808</v>
       </c>
     </row>
@@ -11059,7 +11073,7 @@
       <c r="L254" s="4">
         <v>2</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>749</v>
       </c>
     </row>
@@ -11098,7 +11112,7 @@
       <c r="L255" s="4">
         <v>3</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>731</v>
       </c>
     </row>
@@ -11139,7 +11153,7 @@
       <c r="L256" s="4">
         <v>2</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>593</v>
       </c>
     </row>
@@ -11178,7 +11192,7 @@
       <c r="L257" s="4">
         <v>8</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>610</v>
       </c>
     </row>
@@ -11219,7 +11233,7 @@
       <c r="L258" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>433</v>
       </c>
     </row>
@@ -11258,7 +11272,7 @@
       <c r="L259" s="4">
         <v>9</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>471</v>
       </c>
     </row>
@@ -11299,7 +11313,7 @@
       <c r="L260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>275</v>
       </c>
     </row>
@@ -11338,7 +11352,7 @@
       <c r="L261" s="4">
         <v>6</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>317</v>
       </c>
     </row>
@@ -11379,7 +11393,7 @@
       <c r="L262" s="4">
         <v>2</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>320</v>
       </c>
     </row>
@@ -11418,7 +11432,7 @@
       <c r="L263" s="4">
         <v>6</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="6">
         <v>454</v>
       </c>
     </row>
@@ -11426,39 +11440,39 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
+      <c r="B264" s="7"/>
       <c r="C264" s="5">
-        <v>2.2679999999999998</v>
+        <v>2268</v>
       </c>
       <c r="D264" s="5">
-        <v>2.9020000000000001</v>
+        <v>2902</v>
       </c>
       <c r="E264" s="5">
-        <v>5.3120000000000003</v>
+        <v>5312</v>
       </c>
       <c r="F264" s="5">
-        <v>2.1309999999999998</v>
+        <v>2131</v>
       </c>
       <c r="G264" s="5">
-        <v>5.9610000000000003</v>
+        <v>5961</v>
       </c>
       <c r="H264" s="5">
-        <v>6.0819999999999999</v>
+        <v>6082</v>
       </c>
       <c r="I264" s="5">
-        <v>2.411</v>
-      </c>
-      <c r="J264" s="5">
+        <v>2411</v>
+      </c>
+      <c r="J264" s="6">
         <v>246</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="6">
         <v>10</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="6">
         <v>157</v>
       </c>
       <c r="M264" s="5">
-        <v>27.48</v>
+        <v>27480</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11519,11 +11533,11 @@
       <c r="F266" s="4">
         <v>10</v>
       </c>
-      <c r="G266" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="H266" s="4">
-        <v>1.7110000000000001</v>
+      <c r="G266" s="9">
+        <v>2940</v>
+      </c>
+      <c r="H266" s="9">
+        <v>1711</v>
       </c>
       <c r="I266" s="4">
         <v>274</v>
@@ -11538,7 +11552,7 @@
         <v>42</v>
       </c>
       <c r="M266" s="5">
-        <v>5.31</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11558,11 +11572,11 @@
       <c r="F267" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G267" s="4">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="H267" s="4">
-        <v>1.6479999999999999</v>
+      <c r="G267" s="9">
+        <v>2196</v>
+      </c>
+      <c r="H267" s="9">
+        <v>1648</v>
       </c>
       <c r="I267" s="4">
         <v>317</v>
@@ -11577,7 +11591,7 @@
         <v>22</v>
       </c>
       <c r="M267" s="5">
-        <v>4.7039999999999997</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11599,8 +11613,8 @@
       <c r="F268" s="4">
         <v>141</v>
       </c>
-      <c r="G268" s="4">
-        <v>1.4690000000000001</v>
+      <c r="G268" s="9">
+        <v>1469</v>
       </c>
       <c r="H268" s="4">
         <v>647</v>
@@ -11618,7 +11632,7 @@
         <v>12</v>
       </c>
       <c r="M268" s="5">
-        <v>3.1059999999999999</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11657,7 +11671,7 @@
         <v>19</v>
       </c>
       <c r="M269" s="5">
-        <v>2.3690000000000002</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11698,7 +11712,7 @@
         <v>2</v>
       </c>
       <c r="M270" s="5">
-        <v>2.0920000000000001</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11737,7 +11751,7 @@
         <v>25</v>
       </c>
       <c r="M271" s="5">
-        <v>1.8460000000000001</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11778,7 +11792,7 @@
         <v>9</v>
       </c>
       <c r="M272" s="5">
-        <v>1.59</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11817,7 +11831,7 @@
         <v>17</v>
       </c>
       <c r="M273" s="5">
-        <v>1.522</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11858,7 +11872,7 @@
         <v>7</v>
       </c>
       <c r="M274" s="5">
-        <v>1.494</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11897,7 +11911,7 @@
         <v>14</v>
       </c>
       <c r="M275" s="5">
-        <v>1.43</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11938,7 +11952,7 @@
         <v>3</v>
       </c>
       <c r="M276" s="5">
-        <v>1.0940000000000001</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11977,7 +11991,7 @@
         <v>11</v>
       </c>
       <c r="M277" s="5">
-        <v>1.0449999999999999</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12018,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="M278" s="5">
-        <v>1.0369999999999999</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12056,7 +12070,7 @@
       <c r="L279" s="4">
         <v>8</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="6">
         <v>971</v>
       </c>
     </row>
@@ -12097,7 +12111,7 @@
       <c r="L280" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="6">
         <v>989</v>
       </c>
     </row>
@@ -12136,7 +12150,7 @@
       <c r="L281" s="4">
         <v>14</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="6">
         <v>977</v>
       </c>
     </row>
@@ -12177,7 +12191,7 @@
       <c r="L282" s="4">
         <v>1</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="6">
         <v>726</v>
       </c>
     </row>
@@ -12216,7 +12230,7 @@
       <c r="L283" s="4">
         <v>12</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="6">
         <v>744</v>
       </c>
     </row>
@@ -12257,7 +12271,7 @@
       <c r="L284" s="4">
         <v>1</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>486</v>
       </c>
     </row>
@@ -12296,7 +12310,7 @@
       <c r="L285" s="4">
         <v>7</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="6">
         <v>641</v>
       </c>
     </row>
@@ -12337,7 +12351,7 @@
       <c r="L286" s="4">
         <v>3</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>368</v>
       </c>
     </row>
@@ -12376,7 +12390,7 @@
       <c r="L287" s="4">
         <v>5</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>439</v>
       </c>
     </row>
@@ -12417,7 +12431,7 @@
       <c r="L288" s="4">
         <v>2</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>337</v>
       </c>
     </row>
@@ -12456,7 +12470,7 @@
       <c r="L289" s="4">
         <v>15</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="6">
         <v>480</v>
       </c>
     </row>
@@ -12464,39 +12478,39 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="5">
-        <v>3.8119999999999998</v>
+        <v>3812</v>
       </c>
       <c r="D290" s="5">
-        <v>4.5140000000000002</v>
+        <v>4514</v>
       </c>
       <c r="E290" s="5">
-        <v>6.3949999999999996</v>
+        <v>6395</v>
       </c>
       <c r="F290" s="5">
-        <v>3.5329999999999999</v>
+        <v>3533</v>
       </c>
       <c r="G290" s="5">
-        <v>8.968</v>
+        <v>8968</v>
       </c>
       <c r="H290" s="5">
-        <v>5.87</v>
+        <v>5870</v>
       </c>
       <c r="I290" s="5">
-        <v>2.2509999999999999</v>
-      </c>
-      <c r="J290" s="5">
+        <v>2251</v>
+      </c>
+      <c r="J290" s="6">
         <v>196</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="6">
         <v>6</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="6">
         <v>252</v>
       </c>
       <c r="M290" s="5">
-        <v>35.796999999999997</v>
+        <v>35797</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12576,7 +12590,7 @@
         <v>19</v>
       </c>
       <c r="M292" s="5">
-        <v>1.6279999999999999</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12615,7 +12629,7 @@
         <v>5</v>
       </c>
       <c r="M293" s="5">
-        <v>1.48</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12656,7 +12670,7 @@
         <v>3</v>
       </c>
       <c r="M294" s="5">
-        <v>1.0149999999999999</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12694,7 +12708,7 @@
       <c r="L295" s="4">
         <v>7</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="6">
         <v>790</v>
       </c>
     </row>
@@ -12735,7 +12749,7 @@
       <c r="L296" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="6">
         <v>675</v>
       </c>
     </row>
@@ -12774,7 +12788,7 @@
       <c r="L297" s="4">
         <v>6</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="6">
         <v>591</v>
       </c>
     </row>
@@ -12815,7 +12829,7 @@
       <c r="L298" s="4">
         <v>6</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="6">
         <v>509</v>
       </c>
     </row>
@@ -12854,7 +12868,7 @@
       <c r="L299" s="4">
         <v>4</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="6">
         <v>492</v>
       </c>
     </row>
@@ -12895,7 +12909,7 @@
       <c r="L300" s="4">
         <v>1</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="6">
         <v>517</v>
       </c>
     </row>
@@ -12934,7 +12948,7 @@
       <c r="L301" s="4">
         <v>2</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="6">
         <v>494</v>
       </c>
     </row>
@@ -12975,7 +12989,7 @@
       <c r="L302" s="4">
         <v>1</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="6">
         <v>392</v>
       </c>
     </row>
@@ -13014,7 +13028,7 @@
       <c r="L303" s="4">
         <v>4</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="6">
         <v>344</v>
       </c>
     </row>
@@ -13055,7 +13069,7 @@
       <c r="L304" s="4">
         <v>1</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="6">
         <v>389</v>
       </c>
     </row>
@@ -13094,7 +13108,7 @@
       <c r="L305" s="4">
         <v>1</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="6">
         <v>315</v>
       </c>
     </row>
@@ -13135,7 +13149,7 @@
       <c r="L306" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="6">
         <v>360</v>
       </c>
     </row>
@@ -13174,7 +13188,7 @@
       <c r="L307" s="4">
         <v>4</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="6">
         <v>340</v>
       </c>
     </row>
@@ -13215,7 +13229,7 @@
       <c r="L308" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="6">
         <v>276</v>
       </c>
     </row>
@@ -13254,7 +13268,7 @@
       <c r="L309" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="6">
         <v>246</v>
       </c>
     </row>
@@ -13295,7 +13309,7 @@
       <c r="L310" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="6">
         <v>166</v>
       </c>
     </row>
@@ -13334,7 +13348,7 @@
       <c r="L311" s="4">
         <v>1</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="6">
         <v>229</v>
       </c>
     </row>
@@ -13375,7 +13389,7 @@
       <c r="L312" s="4">
         <v>1</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="6">
         <v>125</v>
       </c>
     </row>
@@ -13414,7 +13428,7 @@
       <c r="L313" s="4">
         <v>1</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="6">
         <v>168</v>
       </c>
     </row>
@@ -13455,7 +13469,7 @@
       <c r="L314" s="4">
         <v>1</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="6">
         <v>114</v>
       </c>
     </row>
@@ -13494,7 +13508,7 @@
       <c r="L315" s="4">
         <v>1</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="6">
         <v>135</v>
       </c>
     </row>
@@ -13502,39 +13516,39 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
         <v>764</v>
       </c>
       <c r="D316" s="5">
-        <v>1.3620000000000001</v>
+        <v>1362</v>
       </c>
       <c r="E316" s="5">
-        <v>2.827</v>
+        <v>2827</v>
       </c>
       <c r="F316" s="5">
-        <v>1.0089999999999999</v>
+        <v>1009</v>
       </c>
       <c r="G316" s="5">
-        <v>3.0009999999999999</v>
+        <v>3001</v>
       </c>
       <c r="H316" s="5">
-        <v>1.823</v>
-      </c>
-      <c r="I316" s="5">
+        <v>1823</v>
+      </c>
+      <c r="I316" s="6">
         <v>868</v>
       </c>
-      <c r="J316" s="5">
+      <c r="J316" s="6">
         <v>61</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="6">
         <v>6</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="6">
         <v>69</v>
       </c>
       <c r="M316" s="5">
-        <v>11.79</v>
+        <v>11790</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13595,11 +13609,11 @@
       <c r="F318" s="4">
         <v>9</v>
       </c>
-      <c r="G318" s="4">
-        <v>3.8250000000000002</v>
-      </c>
-      <c r="H318" s="4">
-        <v>5.2380000000000004</v>
+      <c r="G318" s="9">
+        <v>3825</v>
+      </c>
+      <c r="H318" s="9">
+        <v>5238</v>
       </c>
       <c r="I318" s="4">
         <v>693</v>
@@ -13614,7 +13628,7 @@
         <v>100</v>
       </c>
       <c r="M318" s="5">
-        <v>10.127000000000001</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13634,11 +13648,11 @@
       <c r="F319" s="4">
         <v>6</v>
       </c>
-      <c r="G319" s="4">
-        <v>3.488</v>
-      </c>
-      <c r="H319" s="4">
-        <v>5.4409999999999998</v>
+      <c r="G319" s="9">
+        <v>3488</v>
+      </c>
+      <c r="H319" s="9">
+        <v>5441</v>
       </c>
       <c r="I319" s="4">
         <v>999</v>
@@ -13653,7 +13667,7 @@
         <v>32</v>
       </c>
       <c r="M319" s="5">
-        <v>10.493</v>
+        <v>10493</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13675,14 +13689,14 @@
       <c r="F320" s="4">
         <v>195</v>
       </c>
-      <c r="G320" s="4">
-        <v>2.379</v>
-      </c>
-      <c r="H320" s="4">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I320" s="4">
-        <v>1.7270000000000001</v>
+      <c r="G320" s="9">
+        <v>2379</v>
+      </c>
+      <c r="H320" s="9">
+        <v>2010</v>
+      </c>
+      <c r="I320" s="9">
+        <v>1727</v>
       </c>
       <c r="J320" s="4">
         <v>154</v>
@@ -13694,7 +13708,7 @@
         <v>34</v>
       </c>
       <c r="M320" s="5">
-        <v>6.7610000000000001</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13714,14 +13728,14 @@
       <c r="F321" s="4">
         <v>292</v>
       </c>
-      <c r="G321" s="4">
-        <v>1.9359999999999999</v>
-      </c>
-      <c r="H321" s="4">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="I321" s="4">
-        <v>1.7330000000000001</v>
+      <c r="G321" s="9">
+        <v>1936</v>
+      </c>
+      <c r="H321" s="9">
+        <v>1438</v>
+      </c>
+      <c r="I321" s="9">
+        <v>1733</v>
       </c>
       <c r="J321" s="4">
         <v>135</v>
@@ -13733,7 +13747,7 @@
         <v>21</v>
       </c>
       <c r="M321" s="5">
-        <v>7.1180000000000003</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13752,17 +13766,17 @@
       <c r="E322" s="4">
         <v>180</v>
       </c>
-      <c r="F322" s="4">
-        <v>1.5569999999999999</v>
+      <c r="F322" s="9">
+        <v>1557</v>
       </c>
       <c r="G322" s="4">
         <v>998</v>
       </c>
-      <c r="H322" s="4">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="I322" s="4">
-        <v>1.6910000000000001</v>
+      <c r="H322" s="9">
+        <v>1795</v>
+      </c>
+      <c r="I322" s="9">
+        <v>1691</v>
       </c>
       <c r="J322" s="4">
         <v>294</v>
@@ -13774,7 +13788,7 @@
         <v>15</v>
       </c>
       <c r="M322" s="5">
-        <v>6.7510000000000003</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13785,23 +13799,23 @@
       <c r="C323" s="4">
         <v>402</v>
       </c>
-      <c r="D323" s="4">
-        <v>1.127</v>
+      <c r="D323" s="9">
+        <v>1127</v>
       </c>
       <c r="E323" s="4">
         <v>562</v>
       </c>
-      <c r="F323" s="4">
-        <v>1.2849999999999999</v>
+      <c r="F323" s="9">
+        <v>1285</v>
       </c>
       <c r="G323" s="4">
         <v>717</v>
       </c>
-      <c r="H323" s="4">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="I323" s="4">
-        <v>1.133</v>
+      <c r="H323" s="9">
+        <v>1031</v>
+      </c>
+      <c r="I323" s="9">
+        <v>1133</v>
       </c>
       <c r="J323" s="4">
         <v>170</v>
@@ -13813,7 +13827,7 @@
         <v>34</v>
       </c>
       <c r="M323" s="5">
-        <v>6.4790000000000001</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13832,17 +13846,17 @@
       <c r="E324" s="4">
         <v>415</v>
       </c>
-      <c r="F324" s="4">
-        <v>1.3640000000000001</v>
+      <c r="F324" s="9">
+        <v>1364</v>
       </c>
       <c r="G324" s="4">
         <v>613</v>
       </c>
-      <c r="H324" s="4">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="I324" s="4">
-        <v>1.054</v>
+      <c r="H324" s="9">
+        <v>1729</v>
+      </c>
+      <c r="I324" s="9">
+        <v>1054</v>
       </c>
       <c r="J324" s="4">
         <v>233</v>
@@ -13854,7 +13868,7 @@
         <v>22</v>
       </c>
       <c r="M324" s="5">
-        <v>5.633</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13868,8 +13882,8 @@
       <c r="D325" s="4">
         <v>684</v>
       </c>
-      <c r="E325" s="4">
-        <v>1.345</v>
+      <c r="E325" s="9">
+        <v>1345</v>
       </c>
       <c r="F325" s="4">
         <v>767</v>
@@ -13893,7 +13907,7 @@
         <v>37</v>
       </c>
       <c r="M325" s="5">
-        <v>5.077</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13912,14 +13926,14 @@
       <c r="E326" s="4">
         <v>637</v>
       </c>
-      <c r="F326" s="4">
-        <v>1.0549999999999999</v>
+      <c r="F326" s="9">
+        <v>1055</v>
       </c>
       <c r="G326" s="4">
         <v>997</v>
       </c>
-      <c r="H326" s="4">
-        <v>1.458</v>
+      <c r="H326" s="9">
+        <v>1458</v>
       </c>
       <c r="I326" s="4">
         <v>613</v>
@@ -13934,7 +13948,7 @@
         <v>8</v>
       </c>
       <c r="M326" s="5">
-        <v>5.1360000000000001</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13948,8 +13962,8 @@
       <c r="D327" s="4">
         <v>677</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.669</v>
+      <c r="E327" s="9">
+        <v>1669</v>
       </c>
       <c r="F327" s="4">
         <v>416</v>
@@ -13973,7 +13987,7 @@
         <v>22</v>
       </c>
       <c r="M327" s="5">
-        <v>4.6970000000000001</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14014,7 +14028,7 @@
         <v>14</v>
       </c>
       <c r="M328" s="5">
-        <v>3.54</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14028,8 +14042,8 @@
       <c r="D329" s="4">
         <v>577</v>
       </c>
-      <c r="E329" s="4">
-        <v>1.107</v>
+      <c r="E329" s="9">
+        <v>1107</v>
       </c>
       <c r="F329" s="4">
         <v>272</v>
@@ -14053,7 +14067,7 @@
         <v>23</v>
       </c>
       <c r="M329" s="5">
-        <v>3.2440000000000002</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14094,7 +14108,7 @@
         <v>8</v>
       </c>
       <c r="M330" s="5">
-        <v>2.9430000000000001</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14133,7 +14147,7 @@
         <v>13</v>
       </c>
       <c r="M331" s="5">
-        <v>2.585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14174,7 +14188,7 @@
         <v>3</v>
       </c>
       <c r="M332" s="5">
-        <v>2.6429999999999998</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14213,7 +14227,7 @@
         <v>15</v>
       </c>
       <c r="M333" s="5">
-        <v>2.3969999999999998</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14254,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="M334" s="5">
-        <v>1.865</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14293,7 +14307,7 @@
         <v>20</v>
       </c>
       <c r="M335" s="5">
-        <v>1.8520000000000001</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14334,7 +14348,7 @@
         <v>7</v>
       </c>
       <c r="M336" s="5">
-        <v>1.2390000000000001</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14373,7 +14387,7 @@
         <v>12</v>
       </c>
       <c r="M337" s="5">
-        <v>1.5309999999999999</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14413,7 +14427,7 @@
       <c r="L338" s="4">
         <v>4</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="6">
         <v>891</v>
       </c>
     </row>
@@ -14452,7 +14466,7 @@
       <c r="L339" s="4">
         <v>8</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="6">
         <v>991</v>
       </c>
     </row>
@@ -14493,7 +14507,7 @@
       <c r="L340" s="4">
         <v>6</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="6">
         <v>883</v>
       </c>
     </row>
@@ -14533,46 +14547,56 @@
         <v>27</v>
       </c>
       <c r="M341" s="5">
-        <v>1.216</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="5">
-        <v>5.4260000000000002</v>
+        <v>5426</v>
       </c>
       <c r="D342" s="5">
-        <v>7.657</v>
+        <v>7657</v>
       </c>
       <c r="E342" s="5">
-        <v>13.435</v>
+        <v>13435</v>
       </c>
       <c r="F342" s="5">
-        <v>10.624000000000001</v>
+        <v>10624</v>
       </c>
       <c r="G342" s="5">
-        <v>19.361999999999998</v>
+        <v>19362</v>
       </c>
       <c r="H342" s="5">
-        <v>25.268999999999998</v>
+        <v>25269</v>
       </c>
       <c r="I342" s="5">
-        <v>11.6</v>
+        <v>11600</v>
       </c>
       <c r="J342" s="5">
-        <v>1.4810000000000001</v>
-      </c>
-      <c r="K342" s="5">
+        <v>1481</v>
+      </c>
+      <c r="K342" s="6">
         <v>752</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="6">
         <v>486</v>
       </c>
       <c r="M342" s="5">
-        <v>96.091999999999999</v>
+        <v>96092</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
